--- a/flagged_pincode_domain.xlsx
+++ b/flagged_pincode_domain.xlsx
@@ -473,10 +473,10 @@
         <v>854102</v>
       </c>
       <c r="D2" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,10 +495,10 @@
         <v>854201</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -517,10 +517,10 @@
         <v>854202</v>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>854312</v>
       </c>
       <c r="D6" t="n">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E6" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -627,10 +627,10 @@
         <v>854329</v>
       </c>
       <c r="D9" t="n">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="E9" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
@@ -649,10 +649,10 @@
         <v>854332</v>
       </c>
       <c r="D10" t="n">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E10" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -671,10 +671,10 @@
         <v>854333</v>
       </c>
       <c r="D11" t="n">
-        <v>1118</v>
+        <v>1008</v>
       </c>
       <c r="E11" t="n">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
@@ -693,10 +693,10 @@
         <v>854336</v>
       </c>
       <c r="D12" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E12" t="n">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
@@ -737,10 +737,10 @@
         <v>804401</v>
       </c>
       <c r="D14" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E14" t="n">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
@@ -806,7 +806,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>804423</v>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>824127</v>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>824208</v>
       </c>
       <c r="D33" t="n">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E33" t="n">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>813105</v>
       </c>
       <c r="D35" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E35" t="n">
         <v>331</v>
@@ -1221,10 +1221,10 @@
         <v>813108</v>
       </c>
       <c r="D36" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E36" t="n">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F36" t="n">
         <v>23</v>
@@ -1243,7 +1243,7 @@
         <v>813201</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>813205</v>
       </c>
       <c r="D38" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E38" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>813211</v>
       </c>
       <c r="D40" t="n">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E40" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -1331,10 +1331,10 @@
         <v>813212</v>
       </c>
       <c r="D41" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1397,10 +1397,10 @@
         <v>848201</v>
       </c>
       <c r="D44" t="n">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="E44" t="n">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="F44" t="n">
         <v>4</v>
@@ -1441,7 +1441,7 @@
         <v>851204</v>
       </c>
       <c r="D46" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
         <v>62</v>
@@ -1507,10 +1507,10 @@
         <v>813108</v>
       </c>
       <c r="D49" t="n">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E49" t="n">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>813201</v>
       </c>
       <c r="D50" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E50" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -1551,10 +1551,10 @@
         <v>813205</v>
       </c>
       <c r="D51" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E51" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F51" t="n">
         <v>2</v>
@@ -1573,10 +1573,10 @@
         <v>813209</v>
       </c>
       <c r="D52" t="n">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="E52" t="n">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="F52" t="n">
         <v>17</v>
@@ -1617,10 +1617,10 @@
         <v>813213</v>
       </c>
       <c r="D54" t="n">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="E54" t="n">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="F54" t="n">
         <v>59</v>
@@ -1639,10 +1639,10 @@
         <v>813227</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>853201</v>
       </c>
       <c r="D56" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E56" t="n">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="F56" t="n">
         <v>18</v>
@@ -1705,10 +1705,10 @@
         <v>853204</v>
       </c>
       <c r="D58" t="n">
-        <v>1558</v>
+        <v>1534</v>
       </c>
       <c r="E58" t="n">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="F58" t="n">
         <v>58</v>
@@ -1727,10 +1727,10 @@
         <v>802112</v>
       </c>
       <c r="D59" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E59" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>66</v>
       </c>
       <c r="E61" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
@@ -1793,10 +1793,10 @@
         <v>802204</v>
       </c>
       <c r="D62" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E62" t="n">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>802205</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -1859,10 +1859,10 @@
         <v>802112</v>
       </c>
       <c r="D65" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E65" t="n">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         <v>802134</v>
       </c>
       <c r="D66" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E66" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>847102</v>
       </c>
       <c r="D68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
         <v>18</v>
@@ -1947,10 +1947,10 @@
         <v>847105</v>
       </c>
       <c r="D69" t="n">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E69" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>847107</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -2013,10 +2013,10 @@
         <v>847121</v>
       </c>
       <c r="D72" t="n">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="E72" t="n">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F72" t="n">
         <v>11</v>
@@ -2035,10 +2035,10 @@
         <v>847234</v>
       </c>
       <c r="D73" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>847239</v>
       </c>
       <c r="D74" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E74" t="n">
         <v>57</v>
@@ -2079,10 +2079,10 @@
         <v>847301</v>
       </c>
       <c r="D75" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E75" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>847304</v>
       </c>
       <c r="D76" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E76" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -2123,10 +2123,10 @@
         <v>847306</v>
       </c>
       <c r="D77" t="n">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E77" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -2211,13 +2211,13 @@
         <v>848207</v>
       </c>
       <c r="D81" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E81" t="n">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -2255,10 +2255,10 @@
         <v>848209</v>
       </c>
       <c r="D83" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E83" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -2277,13 +2277,13 @@
         <v>845301</v>
       </c>
       <c r="D84" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E84" t="n">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F84" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
@@ -2299,13 +2299,13 @@
         <v>845302</v>
       </c>
       <c r="D85" t="n">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="E85" t="n">
-        <v>1421</v>
+        <v>1406</v>
       </c>
       <c r="F85" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
@@ -2321,10 +2321,10 @@
         <v>845303</v>
       </c>
       <c r="D86" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E86" t="n">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="F86" t="n">
         <v>90</v>
@@ -2343,13 +2343,13 @@
         <v>845304</v>
       </c>
       <c r="D87" t="n">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="E87" t="n">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F87" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -2365,13 +2365,13 @@
         <v>845305</v>
       </c>
       <c r="D88" t="n">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="E88" t="n">
-        <v>1158</v>
+        <v>1113</v>
       </c>
       <c r="F88" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
@@ -2387,10 +2387,10 @@
         <v>845315</v>
       </c>
       <c r="D89" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E89" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F89" t="n">
         <v>19</v>
@@ -2412,7 +2412,7 @@
         <v>1017</v>
       </c>
       <c r="E90" t="n">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="F90" t="n">
         <v>41</v>
@@ -2431,10 +2431,10 @@
         <v>845418</v>
       </c>
       <c r="D91" t="n">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="E91" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -2453,10 +2453,10 @@
         <v>845427</v>
       </c>
       <c r="D92" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E92" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F92" t="n">
         <v>6</v>
@@ -2475,13 +2475,13 @@
         <v>845433</v>
       </c>
       <c r="D93" t="n">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="E93" t="n">
-        <v>1355</v>
+        <v>1316</v>
       </c>
       <c r="F93" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
@@ -2497,10 +2497,10 @@
         <v>845437</v>
       </c>
       <c r="D94" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E94" t="n">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="F94" t="n">
         <v>13</v>
@@ -2519,10 +2519,10 @@
         <v>845440</v>
       </c>
       <c r="D95" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E95" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F95" t="n">
         <v>11</v>
@@ -2544,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F96" t="n">
         <v>4</v>
@@ -2563,10 +2563,10 @@
         <v>804403</v>
       </c>
       <c r="D97" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E97" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F97" t="n">
         <v>3</v>
@@ -2585,10 +2585,10 @@
         <v>804407</v>
       </c>
       <c r="D98" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E98" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F98" t="n">
         <v>3</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>805109</v>
       </c>
       <c r="D101" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E101" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>805128</v>
       </c>
       <c r="D103" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E103" t="n">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="F103" t="n">
         <v>2</v>
@@ -2720,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>823003</v>
       </c>
       <c r="D106" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E106" t="n">
-        <v>1886</v>
+        <v>1869</v>
       </c>
       <c r="F106" t="n">
         <v>78</v>
@@ -2783,10 +2783,10 @@
         <v>824116</v>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E107" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>824232</v>
       </c>
       <c r="D111" t="n">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="E111" t="n">
-        <v>2124</v>
+        <v>2069</v>
       </c>
       <c r="F111" t="n">
         <v>34</v>
@@ -2893,10 +2893,10 @@
         <v>824233</v>
       </c>
       <c r="D112" t="n">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E112" t="n">
-        <v>1017</v>
+        <v>984</v>
       </c>
       <c r="F112" t="n">
         <v>25</v>
@@ -2915,10 +2915,10 @@
         <v>824235</v>
       </c>
       <c r="D113" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E113" t="n">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="F113" t="n">
         <v>18</v>
@@ -2981,10 +2981,10 @@
         <v>841243</v>
       </c>
       <c r="D116" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>841407</v>
       </c>
       <c r="D117" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E117" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3025,10 +3025,10 @@
         <v>841409</v>
       </c>
       <c r="D118" t="n">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E118" t="n">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="F118" t="n">
         <v>19</v>
@@ -3047,10 +3047,10 @@
         <v>841413</v>
       </c>
       <c r="D119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E119" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>841426</v>
       </c>
       <c r="D122" t="n">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E122" t="n">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F122" t="n">
         <v>3</v>
@@ -3135,10 +3135,10 @@
         <v>841427</v>
       </c>
       <c r="D123" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E123" t="n">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F123" t="n">
         <v>16</v>
@@ -3157,10 +3157,10 @@
         <v>841428</v>
       </c>
       <c r="D124" t="n">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E124" t="n">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="F124" t="n">
         <v>44</v>
@@ -3179,10 +3179,10 @@
         <v>841436</v>
       </c>
       <c r="D125" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E125" t="n">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>841438</v>
       </c>
       <c r="D126" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E126" t="n">
         <v>1739</v>
@@ -3223,7 +3223,7 @@
         <v>811213</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>811308</v>
       </c>
       <c r="D128" t="n">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="E128" t="n">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="F128" t="n">
         <v>9</v>
@@ -3270,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>811311</v>
       </c>
       <c r="D130" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E130" t="n">
         <v>18</v>
@@ -3311,10 +3311,10 @@
         <v>811315</v>
       </c>
       <c r="D131" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E131" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F131" t="n">
         <v>5</v>
@@ -3377,13 +3377,13 @@
         <v>804417</v>
       </c>
       <c r="D134" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E134" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F134" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
@@ -3399,13 +3399,13 @@
         <v>804418</v>
       </c>
       <c r="D135" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E135" t="n">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F135" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136">
@@ -3421,10 +3421,10 @@
         <v>804421</v>
       </c>
       <c r="D136" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E136" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -3443,10 +3443,10 @@
         <v>804422</v>
       </c>
       <c r="D137" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E137" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F137" t="n">
         <v>2</v>
@@ -3465,10 +3465,10 @@
         <v>804423</v>
       </c>
       <c r="D138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -3487,10 +3487,10 @@
         <v>804424</v>
       </c>
       <c r="D139" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -3512,7 +3512,7 @@
         <v>75</v>
       </c>
       <c r="E140" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F140" t="n">
         <v>4</v>
@@ -3531,10 +3531,10 @@
         <v>804427</v>
       </c>
       <c r="D141" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E141" t="n">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="F141" t="n">
         <v>2</v>
@@ -3553,10 +3553,10 @@
         <v>804429</v>
       </c>
       <c r="D142" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E142" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -3575,10 +3575,10 @@
         <v>804432</v>
       </c>
       <c r="D143" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E143" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F143" t="n">
         <v>9</v>
@@ -3600,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F144" t="n">
         <v>3</v>
@@ -3619,10 +3619,10 @@
         <v>804454</v>
       </c>
       <c r="D145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>5</v>
       </c>
       <c r="E146" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>821104</v>
       </c>
       <c r="D147" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E147" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>821108</v>
       </c>
       <c r="D148" t="n">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="E148" t="n">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="F148" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -3707,10 +3707,10 @@
         <v>821109</v>
       </c>
       <c r="D149" t="n">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E149" t="n">
-        <v>1483</v>
+        <v>1464</v>
       </c>
       <c r="F149" t="n">
         <v>28</v>
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>854101</v>
       </c>
       <c r="D153" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E153" t="n">
         <v>231</v>
@@ -3817,10 +3817,10 @@
         <v>854104</v>
       </c>
       <c r="D154" t="n">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="E154" t="n">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F154" t="n">
         <v>5</v>
@@ -3839,10 +3839,10 @@
         <v>854114</v>
       </c>
       <c r="D155" t="n">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="E155" t="n">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F155" t="n">
         <v>18</v>
@@ -3883,10 +3883,10 @@
         <v>854317</v>
       </c>
       <c r="D157" t="n">
-        <v>1601</v>
+        <v>1547</v>
       </c>
       <c r="E157" t="n">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="F157" t="n">
         <v>3</v>
@@ -3905,10 +3905,10 @@
         <v>854337</v>
       </c>
       <c r="D158" t="n">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="E158" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>855105</v>
       </c>
       <c r="D160" t="n">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="E160" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F160" t="n">
         <v>6</v>
@@ -3971,10 +3971,10 @@
         <v>848201</v>
       </c>
       <c r="D161" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E161" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F161" t="n">
         <v>2</v>
@@ -3993,10 +3993,10 @@
         <v>848203</v>
       </c>
       <c r="D162" t="n">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="E162" t="n">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="F162" t="n">
         <v>10</v>
@@ -4015,10 +4015,10 @@
         <v>851204</v>
       </c>
       <c r="D163" t="n">
-        <v>757</v>
+        <v>710</v>
       </c>
       <c r="E163" t="n">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F163" t="n">
         <v>6</v>
@@ -4037,10 +4037,10 @@
         <v>853203</v>
       </c>
       <c r="D164" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E164" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>855101</v>
       </c>
       <c r="D167" t="n">
-        <v>1906</v>
+        <v>1745</v>
       </c>
       <c r="E167" t="n">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="F167" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
@@ -4125,10 +4125,10 @@
         <v>855107</v>
       </c>
       <c r="D168" t="n">
-        <v>1685</v>
+        <v>1576</v>
       </c>
       <c r="E168" t="n">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -4147,10 +4147,10 @@
         <v>855115</v>
       </c>
       <c r="D169" t="n">
-        <v>774</v>
+        <v>735</v>
       </c>
       <c r="E169" t="n">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F169" t="n">
         <v>4</v>
@@ -4191,7 +4191,7 @@
         <v>811105</v>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -4213,10 +4213,10 @@
         <v>811107</v>
       </c>
       <c r="D172" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E172" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4279,10 +4279,10 @@
         <v>811302</v>
       </c>
       <c r="D175" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E175" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F175" t="n">
         <v>16</v>
@@ -4301,7 +4301,7 @@
         <v>811304</v>
       </c>
       <c r="D176" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -4323,10 +4323,10 @@
         <v>811310</v>
       </c>
       <c r="D177" t="n">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E177" t="n">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F177" t="n">
         <v>6</v>
@@ -4345,10 +4345,10 @@
         <v>811311</v>
       </c>
       <c r="D178" t="n">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="E178" t="n">
-        <v>1801</v>
+        <v>1792</v>
       </c>
       <c r="F178" t="n">
         <v>38</v>
@@ -4367,10 +4367,10 @@
         <v>811315</v>
       </c>
       <c r="D179" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E179" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>852108</v>
       </c>
       <c r="D181" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E181" t="n">
         <v>26</v>
@@ -4433,10 +4433,10 @@
         <v>852112</v>
       </c>
       <c r="D182" t="n">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="E182" t="n">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -4455,10 +4455,10 @@
         <v>852115</v>
       </c>
       <c r="D183" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E183" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F183" t="n">
         <v>3</v>
@@ -4477,10 +4477,10 @@
         <v>852121</v>
       </c>
       <c r="D184" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E184" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F184" t="n">
         <v>2</v>
@@ -4499,10 +4499,10 @@
         <v>852124</v>
       </c>
       <c r="D185" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E185" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -4543,7 +4543,7 @@
         <v>852131</v>
       </c>
       <c r="D187" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E187" t="n">
         <v>21</v>
@@ -4565,7 +4565,7 @@
         <v>852202</v>
       </c>
       <c r="D188" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E188" t="n">
         <v>15</v>
@@ -4587,10 +4587,10 @@
         <v>852210</v>
       </c>
       <c r="D189" t="n">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="E189" t="n">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="F189" t="n">
         <v>5</v>
@@ -4631,10 +4631,10 @@
         <v>853204</v>
       </c>
       <c r="D191" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E191" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>843319</v>
       </c>
       <c r="D192" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E192" t="n">
         <v>21</v>
@@ -4675,7 +4675,7 @@
         <v>847102</v>
       </c>
       <c r="D193" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E193" t="n">
         <v>122</v>
@@ -4697,10 +4697,10 @@
         <v>847109</v>
       </c>
       <c r="D194" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E194" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>177</v>
       </c>
       <c r="E195" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -4741,10 +4741,10 @@
         <v>847234</v>
       </c>
       <c r="D196" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E196" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F196" t="n">
         <v>2</v>
@@ -4763,10 +4763,10 @@
         <v>847239</v>
       </c>
       <c r="D197" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E197" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -4785,10 +4785,10 @@
         <v>847304</v>
       </c>
       <c r="D198" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E198" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -4829,10 +4829,10 @@
         <v>847402</v>
       </c>
       <c r="D200" t="n">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E200" t="n">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="F200" t="n">
         <v>2</v>
@@ -4851,10 +4851,10 @@
         <v>847403</v>
       </c>
       <c r="D201" t="n">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="E201" t="n">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F201" t="n">
         <v>10</v>
@@ -4873,10 +4873,10 @@
         <v>847407</v>
       </c>
       <c r="D202" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E202" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -4895,10 +4895,10 @@
         <v>847408</v>
       </c>
       <c r="D203" t="n">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E203" t="n">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -4917,10 +4917,10 @@
         <v>847424</v>
       </c>
       <c r="D204" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E204" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -4939,10 +4939,10 @@
         <v>847452</v>
       </c>
       <c r="D205" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E205" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -4961,10 +4961,10 @@
         <v>811202</v>
       </c>
       <c r="D206" t="n">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E206" t="n">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="F206" t="n">
         <v>8</v>
@@ -4986,10 +4986,10 @@
         <v>329</v>
       </c>
       <c r="E207" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F207" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208">
@@ -5005,10 +5005,10 @@
         <v>811212</v>
       </c>
       <c r="D208" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E208" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F208" t="n">
         <v>5</v>
@@ -5049,10 +5049,10 @@
         <v>813201</v>
       </c>
       <c r="D210" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E210" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F210" t="n">
         <v>2</v>
@@ -5071,10 +5071,10 @@
         <v>813212</v>
       </c>
       <c r="D211" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E211" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F211" t="n">
         <v>7</v>
@@ -5093,10 +5093,10 @@
         <v>813213</v>
       </c>
       <c r="D212" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E212" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -5137,7 +5137,7 @@
         <v>813321</v>
       </c>
       <c r="D214" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E214" t="n">
         <v>262</v>
@@ -5159,10 +5159,10 @@
         <v>843102</v>
       </c>
       <c r="D215" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E215" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F215" t="n">
         <v>5</v>
@@ -5203,10 +5203,10 @@
         <v>843105</v>
       </c>
       <c r="D217" t="n">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E217" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F217" t="n">
         <v>2</v>
@@ -5225,7 +5225,7 @@
         <v>843117</v>
       </c>
       <c r="D218" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E218" t="n">
         <v>186</v>
@@ -5247,10 +5247,10 @@
         <v>843128</v>
       </c>
       <c r="D219" t="n">
-        <v>855</v>
+        <v>819</v>
       </c>
       <c r="E219" t="n">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="F219" t="n">
         <v>31</v>
@@ -5269,10 +5269,10 @@
         <v>843328</v>
       </c>
       <c r="D220" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E220" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -5291,10 +5291,10 @@
         <v>844111</v>
       </c>
       <c r="D221" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E221" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>52</v>
       </c>
       <c r="E222" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F222" t="n">
         <v>2</v>
@@ -5335,10 +5335,10 @@
         <v>844120</v>
       </c>
       <c r="D223" t="n">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E223" t="n">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>847107</v>
       </c>
       <c r="D224" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E224" t="n">
         <v>187</v>
@@ -5379,7 +5379,7 @@
         <v>801304</v>
       </c>
       <c r="D225" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E225" t="n">
         <v>114</v>
@@ -5401,7 +5401,7 @@
         <v>801305</v>
       </c>
       <c r="D226" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E226" t="n">
         <v>62</v>
@@ -5423,10 +5423,10 @@
         <v>803109</v>
       </c>
       <c r="D227" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E227" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F227" t="n">
         <v>2</v>
@@ -5445,10 +5445,10 @@
         <v>803110</v>
       </c>
       <c r="D228" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E228" t="n">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="F228" t="n">
         <v>2</v>
@@ -5492,7 +5492,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F230" t="n">
         <v>1</v>
@@ -5511,10 +5511,10 @@
         <v>803213</v>
       </c>
       <c r="D231" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E231" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -5533,10 +5533,10 @@
         <v>805130</v>
       </c>
       <c r="D232" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E232" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F232" t="n">
         <v>48</v>
@@ -5555,7 +5555,7 @@
         <v>811101</v>
       </c>
       <c r="D233" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E233" t="n">
         <v>90</v>
@@ -5599,7 +5599,7 @@
         <v>811103</v>
       </c>
       <c r="D235" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E235" t="n">
         <v>21</v>
@@ -5621,10 +5621,10 @@
         <v>811104</v>
       </c>
       <c r="D236" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E236" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F236" t="n">
         <v>1</v>
@@ -5646,7 +5646,7 @@
         <v>5</v>
       </c>
       <c r="E237" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F237" t="n">
         <v>1</v>
@@ -5665,10 +5665,10 @@
         <v>805109</v>
       </c>
       <c r="D238" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E238" t="n">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="F238" t="n">
         <v>13</v>
@@ -5687,10 +5687,10 @@
         <v>805124</v>
       </c>
       <c r="D239" t="n">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E239" t="n">
-        <v>813</v>
+        <v>765</v>
       </c>
       <c r="F239" t="n">
         <v>4</v>
@@ -5712,7 +5712,7 @@
         <v>15</v>
       </c>
       <c r="E240" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -5731,10 +5731,10 @@
         <v>805129</v>
       </c>
       <c r="D241" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E241" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F241" t="n">
         <v>21</v>
@@ -5753,13 +5753,13 @@
         <v>805130</v>
       </c>
       <c r="D242" t="n">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E242" t="n">
-        <v>1028</v>
+        <v>978</v>
       </c>
       <c r="F242" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
@@ -5775,7 +5775,7 @@
         <v>801304</v>
       </c>
       <c r="D243" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E243" t="n">
         <v>36</v>
@@ -5800,10 +5800,10 @@
         <v>12</v>
       </c>
       <c r="E244" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -5819,10 +5819,10 @@
         <v>802160</v>
       </c>
       <c r="D245" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E245" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -5841,10 +5841,10 @@
         <v>803110</v>
       </c>
       <c r="D246" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E246" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -5863,10 +5863,10 @@
         <v>803202</v>
       </c>
       <c r="D247" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E247" t="n">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F247" t="n">
         <v>2</v>
@@ -5885,10 +5885,10 @@
         <v>803213</v>
       </c>
       <c r="D248" t="n">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E248" t="n">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F248" t="n">
         <v>1</v>
@@ -5954,7 +5954,7 @@
         <v>15</v>
       </c>
       <c r="E251" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -5995,10 +5995,10 @@
         <v>804454</v>
       </c>
       <c r="D253" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E253" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F253" t="n">
         <v>1</v>
@@ -6017,10 +6017,10 @@
         <v>811104</v>
       </c>
       <c r="D254" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E254" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         <v>853204</v>
       </c>
       <c r="D268" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E268" t="n">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F268" t="n">
         <v>2</v>
@@ -6347,10 +6347,10 @@
         <v>854101</v>
       </c>
       <c r="D269" t="n">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E269" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F269" t="n">
         <v>1</v>
@@ -6372,7 +6372,7 @@
         <v>350</v>
       </c>
       <c r="E270" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F270" t="n">
         <v>4</v>
@@ -6435,10 +6435,10 @@
         <v>854201</v>
       </c>
       <c r="D273" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E273" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F273" t="n">
         <v>1</v>
@@ -6457,10 +6457,10 @@
         <v>854202</v>
       </c>
       <c r="D274" t="n">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E274" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F274" t="n">
         <v>4</v>
@@ -6479,10 +6479,10 @@
         <v>854303</v>
       </c>
       <c r="D275" t="n">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="E275" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F275" t="n">
         <v>34</v>
@@ -6501,10 +6501,10 @@
         <v>854304</v>
       </c>
       <c r="D276" t="n">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="E276" t="n">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F276" t="n">
         <v>23</v>
@@ -6545,7 +6545,7 @@
         <v>854317</v>
       </c>
       <c r="D278" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E278" t="n">
         <v>36</v>
@@ -6567,10 +6567,10 @@
         <v>854325</v>
       </c>
       <c r="D279" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E279" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -6589,10 +6589,10 @@
         <v>854327</v>
       </c>
       <c r="D280" t="n">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="E280" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F280" t="n">
         <v>1</v>
@@ -6611,7 +6611,7 @@
         <v>854329</v>
       </c>
       <c r="D281" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -6655,10 +6655,10 @@
         <v>854337</v>
       </c>
       <c r="D283" t="n">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E283" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -6677,13 +6677,13 @@
         <v>855105</v>
       </c>
       <c r="D284" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E284" t="n">
         <v>18</v>
       </c>
       <c r="F284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6699,7 +6699,7 @@
         <v>855107</v>
       </c>
       <c r="D285" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E285" t="n">
         <v>70</v>
@@ -6721,10 +6721,10 @@
         <v>855115</v>
       </c>
       <c r="D286" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="E286" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -6765,10 +6765,10 @@
         <v>821104</v>
       </c>
       <c r="D288" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E288" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F288" t="n">
         <v>4</v>
@@ -6787,10 +6787,10 @@
         <v>821108</v>
       </c>
       <c r="D289" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E289" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F289" t="n">
         <v>5</v>
@@ -6831,10 +6831,10 @@
         <v>821112</v>
       </c>
       <c r="D291" t="n">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E291" t="n">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F291" t="n">
         <v>1</v>
@@ -6853,10 +6853,10 @@
         <v>821311</v>
       </c>
       <c r="D292" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E292" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -6875,10 +6875,10 @@
         <v>852107</v>
       </c>
       <c r="D293" t="n">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E293" t="n">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>852110</v>
       </c>
       <c r="D294" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E294" t="n">
         <v>11</v>
@@ -6919,10 +6919,10 @@
         <v>852115</v>
       </c>
       <c r="D295" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E295" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F295" t="n">
         <v>1</v>
@@ -6963,10 +6963,10 @@
         <v>852123</v>
       </c>
       <c r="D297" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E297" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F297" t="n">
         <v>5</v>
@@ -6985,10 +6985,10 @@
         <v>852124</v>
       </c>
       <c r="D298" t="n">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="E298" t="n">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="F298" t="n">
         <v>8</v>
@@ -7007,13 +7007,13 @@
         <v>852126</v>
       </c>
       <c r="D299" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E299" t="n">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="F299" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300">
@@ -7029,10 +7029,10 @@
         <v>852130</v>
       </c>
       <c r="D300" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E300" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -7051,10 +7051,10 @@
         <v>852202</v>
       </c>
       <c r="D301" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E301" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F301" t="n">
         <v>6</v>
@@ -7073,10 +7073,10 @@
         <v>852210</v>
       </c>
       <c r="D302" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E302" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F302" t="n">
         <v>3</v>
@@ -7095,10 +7095,10 @@
         <v>847105</v>
       </c>
       <c r="D303" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E303" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -7117,10 +7117,10 @@
         <v>847301</v>
       </c>
       <c r="D304" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E304" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -7161,10 +7161,10 @@
         <v>848207</v>
       </c>
       <c r="D306" t="n">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E306" t="n">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F306" t="n">
         <v>2</v>
@@ -7183,10 +7183,10 @@
         <v>848208</v>
       </c>
       <c r="D307" t="n">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E307" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F307" t="n">
         <v>7</v>
@@ -7205,10 +7205,10 @@
         <v>848209</v>
       </c>
       <c r="D308" t="n">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="E308" t="n">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="F308" t="n">
         <v>3</v>
@@ -7227,10 +7227,10 @@
         <v>841204</v>
       </c>
       <c r="D309" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E309" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F309" t="n">
         <v>1</v>
@@ -7249,10 +7249,10 @@
         <v>841223</v>
       </c>
       <c r="D310" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E310" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F310" t="n">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>841312</v>
       </c>
       <c r="D311" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E311" t="n">
         <v>29</v>
@@ -7293,10 +7293,10 @@
         <v>841417</v>
       </c>
       <c r="D312" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E312" t="n">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F312" t="n">
         <v>9</v>
@@ -7315,10 +7315,10 @@
         <v>811101</v>
       </c>
       <c r="D313" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E313" t="n">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F313" t="n">
         <v>3</v>
@@ -7337,10 +7337,10 @@
         <v>811102</v>
       </c>
       <c r="D314" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E314" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F314" t="n">
         <v>2</v>
@@ -7359,10 +7359,10 @@
         <v>811103</v>
       </c>
       <c r="D315" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E315" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F315" t="n">
         <v>1</v>
@@ -7381,13 +7381,13 @@
         <v>811105</v>
       </c>
       <c r="D316" t="n">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="E316" t="n">
-        <v>814</v>
+        <v>753</v>
       </c>
       <c r="F316" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
@@ -7406,7 +7406,7 @@
         <v>105</v>
       </c>
       <c r="E317" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F317" t="n">
         <v>4</v>
@@ -7425,10 +7425,10 @@
         <v>811304</v>
       </c>
       <c r="D318" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E318" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>811311</v>
       </c>
       <c r="D319" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E319" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>811315</v>
       </c>
       <c r="D320" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -7491,10 +7491,10 @@
         <v>843128</v>
       </c>
       <c r="D321" t="n">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E321" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>843316</v>
       </c>
       <c r="D323" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E323" t="n">
         <v>51</v>
@@ -7557,7 +7557,7 @@
         <v>843325</v>
       </c>
       <c r="D324" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E324" t="n">
         <v>30</v>
@@ -7579,10 +7579,10 @@
         <v>843327</v>
       </c>
       <c r="D325" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E325" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -7601,10 +7601,10 @@
         <v>843334</v>
       </c>
       <c r="D326" t="n">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="E326" t="n">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F326" t="n">
         <v>4</v>
@@ -7623,10 +7623,10 @@
         <v>843117</v>
       </c>
       <c r="D327" t="n">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E327" t="n">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F327" t="n">
         <v>4</v>
@@ -7648,7 +7648,7 @@
         <v>636</v>
       </c>
       <c r="E328" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="F328" t="n">
         <v>73</v>
@@ -7667,10 +7667,10 @@
         <v>843316</v>
       </c>
       <c r="D329" t="n">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="E329" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F329" t="n">
         <v>12</v>
@@ -7689,10 +7689,10 @@
         <v>843319</v>
       </c>
       <c r="D330" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E330" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F330" t="n">
         <v>21</v>
@@ -7733,10 +7733,10 @@
         <v>843327</v>
       </c>
       <c r="D332" t="n">
-        <v>1119</v>
+        <v>1073</v>
       </c>
       <c r="E332" t="n">
-        <v>1193</v>
+        <v>1156</v>
       </c>
       <c r="F332" t="n">
         <v>43</v>
@@ -7755,10 +7755,10 @@
         <v>843328</v>
       </c>
       <c r="D333" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E333" t="n">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>843334</v>
       </c>
       <c r="D334" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -7821,7 +7821,7 @@
         <v>841223</v>
       </c>
       <c r="D336" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -7865,7 +7865,7 @@
         <v>841238</v>
       </c>
       <c r="D338" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E338" t="n">
         <v>414</v>
@@ -7887,10 +7887,10 @@
         <v>841243</v>
       </c>
       <c r="D339" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E339" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F339" t="n">
         <v>2</v>
@@ -7912,7 +7912,7 @@
         <v>19</v>
       </c>
       <c r="E340" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F340" t="n">
         <v>1</v>
@@ -7931,7 +7931,7 @@
         <v>841409</v>
       </c>
       <c r="D341" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E341" t="n">
         <v>20</v>
@@ -7953,10 +7953,10 @@
         <v>841413</v>
       </c>
       <c r="D342" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E342" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F342" t="n">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>841417</v>
       </c>
       <c r="D344" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E344" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>21</v>
       </c>
       <c r="E345" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F345" t="n">
         <v>1</v>
@@ -8088,7 +8088,7 @@
         <v>6</v>
       </c>
       <c r="E348" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -8107,10 +8107,10 @@
         <v>841436</v>
       </c>
       <c r="D349" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E349" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -8129,10 +8129,10 @@
         <v>841438</v>
       </c>
       <c r="D350" t="n">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E350" t="n">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>847402</v>
       </c>
       <c r="D351" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -8173,10 +8173,10 @@
         <v>847408</v>
       </c>
       <c r="D352" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E352" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F352" t="n">
         <v>2</v>
@@ -8195,10 +8195,10 @@
         <v>847452</v>
       </c>
       <c r="D353" t="n">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="E353" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F353" t="n">
         <v>19</v>
@@ -8217,10 +8217,10 @@
         <v>852108</v>
       </c>
       <c r="D354" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E354" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F354" t="n">
         <v>7</v>
@@ -8261,7 +8261,7 @@
         <v>852112</v>
       </c>
       <c r="D356" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -8283,10 +8283,10 @@
         <v>852123</v>
       </c>
       <c r="D357" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E357" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F357" t="n">
         <v>1</v>
@@ -8305,10 +8305,10 @@
         <v>852130</v>
       </c>
       <c r="D358" t="n">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E358" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F358" t="n">
         <v>15</v>
@@ -8327,10 +8327,10 @@
         <v>852131</v>
       </c>
       <c r="D359" t="n">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="E359" t="n">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="F359" t="n">
         <v>21</v>
@@ -8371,10 +8371,10 @@
         <v>843102</v>
       </c>
       <c r="D361" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E361" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -8393,10 +8393,10 @@
         <v>843104</v>
       </c>
       <c r="D362" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E362" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
@@ -8437,10 +8437,10 @@
         <v>844111</v>
       </c>
       <c r="D364" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E364" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -8459,10 +8459,10 @@
         <v>844112</v>
       </c>
       <c r="D365" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E365" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F365" t="n">
         <v>1</v>
